--- a/data/trans_media/Q20A-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q20A-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,46</t>
+          <t>1,06; 1,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,51</t>
+          <t>1,0; 1,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,31</t>
+          <t>1,04; 1,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,48</t>
+          <t>1,05; 1,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,61</t>
+          <t>1,17; 2,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,8</t>
+          <t>1,25; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,38</t>
+          <t>1,07; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,48</t>
+          <t>1,23; 2,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,5</t>
+          <t>1,12; 1,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,35</t>
+          <t>1,08; 1,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 2,25</t>
+          <t>1,27; 2,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,48</t>
+          <t>1,26; 3,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,29</t>
+          <t>1,1; 1,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,72</t>
+          <t>1,32; 2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,61</t>
+          <t>1,1; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,78</t>
+          <t>1,11; 2,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,13</t>
+          <t>1,22; 2,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,34</t>
+          <t>1,11; 1,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 1,68</t>
+          <t>1,09; 1,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,0</t>
+          <t>1,31; 2,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,37</t>
+          <t>1,12; 1,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,84</t>
+          <t>1,13; 1,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,27</t>
+          <t>1,12; 2,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,67</t>
+          <t>1,18; 1,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,55</t>
+          <t>1,14; 1,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,39</t>
+          <t>1,14; 2,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,58</t>
+          <t>1,14; 1,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,58</t>
+          <t>1,12; 1,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,95</t>
+          <t>1,19; 1,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,52</t>
+          <t>1,19; 1,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,51</t>
+          <t>1,17; 1,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,95</t>
+          <t>1,26; 1,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,69</t>
+          <t>1,25; 1,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,35</t>
+          <t>1,07; 1,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,91</t>
+          <t>1,23; 1,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,39</t>
+          <t>1,14; 1,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,46</t>
+          <t>1,17; 1,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 1,8</t>
+          <t>1,31; 1,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,43</t>
+          <t>1,2; 1,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,86</t>
+          <t>1,35; 1,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,48</t>
+          <t>1,31; 2,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,7</t>
+          <t>1,25; 1,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,56</t>
+          <t>1,23; 1,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,36</t>
+          <t>1,16; 1,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,58</t>
+          <t>1,3; 1,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,68</t>
+          <t>1,28; 1,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,41</t>
+          <t>1,21; 1,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
